--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Npy-Fap.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Npy-Fap.xlsx
@@ -537,22 +537,22 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.709067</v>
+        <v>1.13508</v>
       </c>
       <c r="H2">
-        <v>8.127200999999999</v>
+        <v>3.40524</v>
       </c>
       <c r="I2">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="J2">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.262849333333333</v>
+        <v>2.781751333333333</v>
       </c>
       <c r="N2">
-        <v>3.788548</v>
+        <v>8.345253999999999</v>
       </c>
       <c r="O2">
-        <v>0.02753556474575133</v>
+        <v>0.06744008595411712</v>
       </c>
       <c r="P2">
-        <v>0.02753556474575133</v>
+        <v>0.06744008595411713</v>
       </c>
       <c r="Q2">
-        <v>3.421143454905333</v>
+        <v>3.15751030344</v>
       </c>
       <c r="R2">
-        <v>30.790291094148</v>
+        <v>28.41759273096</v>
       </c>
       <c r="S2">
-        <v>0.01847197020617948</v>
+        <v>0.008257137446686658</v>
       </c>
       <c r="T2">
-        <v>0.01847197020617948</v>
+        <v>0.008257137446686659</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.709067</v>
+        <v>1.13508</v>
       </c>
       <c r="H3">
-        <v>8.127200999999999</v>
+        <v>3.40524</v>
       </c>
       <c r="I3">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="J3">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>76.354484</v>
       </c>
       <c r="O3">
-        <v>0.5549524086300172</v>
+        <v>0.6170396927334101</v>
       </c>
       <c r="P3">
-        <v>0.554952408630017</v>
+        <v>0.6170396927334101</v>
       </c>
       <c r="Q3">
-        <v>68.94980430214265</v>
+        <v>28.88948256624</v>
       </c>
       <c r="R3">
-        <v>620.548238719284</v>
+        <v>260.00534309616</v>
       </c>
       <c r="S3">
-        <v>0.3722845146890598</v>
+        <v>0.07554826600350779</v>
       </c>
       <c r="T3">
-        <v>0.3722845146890598</v>
+        <v>0.07554826600350779</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.709067</v>
+        <v>1.13508</v>
       </c>
       <c r="H4">
-        <v>8.127200999999999</v>
+        <v>3.40524</v>
       </c>
       <c r="I4">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="J4">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.981677666666667</v>
+        <v>3.163721333333334</v>
       </c>
       <c r="N4">
-        <v>8.945033</v>
+        <v>9.491164000000001</v>
       </c>
       <c r="O4">
-        <v>0.06501343927129398</v>
+        <v>0.07670047142539008</v>
       </c>
       <c r="P4">
-        <v>0.06501343927129398</v>
+        <v>0.07670047142539008</v>
       </c>
       <c r="Q4">
-        <v>8.077564571403666</v>
+        <v>3.591076811040001</v>
       </c>
       <c r="R4">
-        <v>72.698081142633</v>
+        <v>32.31969129936</v>
       </c>
       <c r="S4">
-        <v>0.04361364382061209</v>
+        <v>0.009390947918067485</v>
       </c>
       <c r="T4">
-        <v>0.04361364382061209</v>
+        <v>0.009390947918067485</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.709067</v>
+        <v>1.13508</v>
       </c>
       <c r="H5">
-        <v>8.127200999999999</v>
+        <v>3.40524</v>
       </c>
       <c r="I5">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="J5">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.47984033333333</v>
+        <v>4.241536</v>
       </c>
       <c r="N5">
-        <v>34.439521</v>
+        <v>12.724608</v>
       </c>
       <c r="O5">
-        <v>0.250310055543222</v>
+        <v>0.1028307415511195</v>
       </c>
       <c r="P5">
-        <v>0.250310055543222</v>
+        <v>0.1028307415511195</v>
       </c>
       <c r="Q5">
-        <v>31.09965661230233</v>
+        <v>4.81448268288</v>
       </c>
       <c r="R5">
-        <v>279.896909510721</v>
+        <v>43.33034414592</v>
       </c>
       <c r="S5">
-        <v>0.1679181063106743</v>
+        <v>0.01259025036400434</v>
       </c>
       <c r="T5">
-        <v>0.1679181063106743</v>
+        <v>0.01259025036400434</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.709067</v>
+        <v>1.13508</v>
       </c>
       <c r="H6">
-        <v>8.127200999999999</v>
+        <v>3.40524</v>
       </c>
       <c r="I6">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="J6">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.429399</v>
+        <v>5.075855</v>
       </c>
       <c r="N6">
-        <v>7.288196999999999</v>
+        <v>15.227565</v>
       </c>
       <c r="O6">
-        <v>0.05297138121868605</v>
+        <v>0.1230577634272013</v>
       </c>
       <c r="P6">
-        <v>0.05297138121868605</v>
+        <v>0.1230577634272013</v>
       </c>
       <c r="Q6">
-        <v>6.581404660732998</v>
+        <v>5.7615014934</v>
       </c>
       <c r="R6">
-        <v>59.23264194659699</v>
+        <v>51.8535134406</v>
       </c>
       <c r="S6">
-        <v>0.03553534436960194</v>
+        <v>0.01506677893607015</v>
       </c>
       <c r="T6">
-        <v>0.03553534436960194</v>
+        <v>0.01506677893607015</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>2.709067</v>
+        <v>1.13508</v>
       </c>
       <c r="H7">
-        <v>8.127200999999999</v>
+        <v>3.40524</v>
       </c>
       <c r="I7">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="J7">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.257220666666667</v>
+        <v>0.5333846666666667</v>
       </c>
       <c r="N7">
-        <v>6.771662</v>
+        <v>1.600154</v>
       </c>
       <c r="O7">
-        <v>0.04921715059102959</v>
+        <v>0.01293124490876184</v>
       </c>
       <c r="P7">
-        <v>0.04921715059102958</v>
+        <v>0.01293124490876184</v>
       </c>
       <c r="Q7">
-        <v>6.114962019784666</v>
+        <v>0.6054342674400002</v>
       </c>
       <c r="R7">
-        <v>55.034658178062</v>
+        <v>5.44890840696</v>
       </c>
       <c r="S7">
-        <v>0.03301685466577638</v>
+        <v>0.001583258162527521</v>
       </c>
       <c r="T7">
-        <v>0.03301685466577638</v>
+        <v>0.001583258162527521</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.06190133333333334</v>
+        <v>0.672624</v>
       </c>
       <c r="H8">
-        <v>0.185704</v>
+        <v>2.017872</v>
       </c>
       <c r="I8">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="J8">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.262849333333333</v>
+        <v>2.781751333333333</v>
       </c>
       <c r="N8">
-        <v>3.788548</v>
+        <v>8.345253999999999</v>
       </c>
       <c r="O8">
-        <v>0.02753556474575133</v>
+        <v>0.06744008595411712</v>
       </c>
       <c r="P8">
-        <v>0.02753556474575133</v>
+        <v>0.06744008595411713</v>
       </c>
       <c r="Q8">
-        <v>0.07817205753244444</v>
+        <v>1.871072708832</v>
       </c>
       <c r="R8">
-        <v>0.703548517792</v>
+        <v>16.839654379488</v>
       </c>
       <c r="S8">
-        <v>0.0004220787396753637</v>
+        <v>0.004893002094953806</v>
       </c>
       <c r="T8">
-        <v>0.0004220787396753637</v>
+        <v>0.004893002094953807</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.06190133333333334</v>
+        <v>0.672624</v>
       </c>
       <c r="H9">
-        <v>0.185704</v>
+        <v>2.017872</v>
       </c>
       <c r="I9">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="J9">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>76.354484</v>
       </c>
       <c r="O9">
-        <v>0.5549524086300172</v>
+        <v>0.6170396927334101</v>
       </c>
       <c r="P9">
-        <v>0.554952408630017</v>
+        <v>0.6170396927334101</v>
       </c>
       <c r="Q9">
-        <v>1.575481455192889</v>
+        <v>17.119286148672</v>
       </c>
       <c r="R9">
-        <v>14.179333096736</v>
+        <v>154.073575338048</v>
       </c>
       <c r="S9">
-        <v>0.008506584679746099</v>
+        <v>0.0447682778943717</v>
       </c>
       <c r="T9">
-        <v>0.008506584679746097</v>
+        <v>0.0447682778943717</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.06190133333333334</v>
+        <v>0.672624</v>
       </c>
       <c r="H10">
-        <v>0.185704</v>
+        <v>2.017872</v>
       </c>
       <c r="I10">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="J10">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.981677666666667</v>
+        <v>3.163721333333334</v>
       </c>
       <c r="N10">
-        <v>8.945033</v>
+        <v>9.491164000000001</v>
       </c>
       <c r="O10">
-        <v>0.06501343927129398</v>
+        <v>0.07670047142539008</v>
       </c>
       <c r="P10">
-        <v>0.06501343927129398</v>
+        <v>0.07670047142539008</v>
       </c>
       <c r="Q10">
-        <v>0.1845698231368889</v>
+        <v>2.127994898112</v>
       </c>
       <c r="R10">
-        <v>1.661128408232</v>
+        <v>19.151954083008</v>
       </c>
       <c r="S10">
-        <v>0.0009965581154031933</v>
+        <v>0.005564873799593177</v>
       </c>
       <c r="T10">
-        <v>0.0009965581154031933</v>
+        <v>0.005564873799593177</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.06190133333333334</v>
+        <v>0.672624</v>
       </c>
       <c r="H11">
-        <v>0.185704</v>
+        <v>2.017872</v>
       </c>
       <c r="I11">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="J11">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.47984033333333</v>
+        <v>4.241536</v>
       </c>
       <c r="N11">
-        <v>34.439521</v>
+        <v>12.724608</v>
       </c>
       <c r="O11">
-        <v>0.250310055543222</v>
+        <v>0.1028307415511195</v>
       </c>
       <c r="P11">
-        <v>0.250310055543222</v>
+        <v>0.1028307415511195</v>
       </c>
       <c r="Q11">
-        <v>0.7106174230871112</v>
+        <v>2.852958910464</v>
       </c>
       <c r="R11">
-        <v>6.395556807784</v>
+        <v>25.676630194176</v>
       </c>
       <c r="S11">
-        <v>0.003836876190747279</v>
+        <v>0.007460711633398573</v>
       </c>
       <c r="T11">
-        <v>0.003836876190747279</v>
+        <v>0.007460711633398573</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.06190133333333334</v>
+        <v>0.672624</v>
       </c>
       <c r="H12">
-        <v>0.185704</v>
+        <v>2.017872</v>
       </c>
       <c r="I12">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="J12">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.429399</v>
+        <v>5.075855</v>
       </c>
       <c r="N12">
-        <v>7.288196999999999</v>
+        <v>15.227565</v>
       </c>
       <c r="O12">
-        <v>0.05297138121868605</v>
+        <v>0.1230577634272013</v>
       </c>
       <c r="P12">
-        <v>0.05297138121868605</v>
+        <v>0.1230577634272013</v>
       </c>
       <c r="Q12">
-        <v>0.1503830372986666</v>
+        <v>3.41414189352</v>
       </c>
       <c r="R12">
-        <v>1.353447335688</v>
+        <v>30.72727704168</v>
       </c>
       <c r="S12">
-        <v>0.0008119715004972265</v>
+        <v>0.008928249211593232</v>
       </c>
       <c r="T12">
-        <v>0.0008119715004972264</v>
+        <v>0.008928249211593233</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.06190133333333334</v>
+        <v>0.672624</v>
       </c>
       <c r="H13">
-        <v>0.185704</v>
+        <v>2.017872</v>
       </c>
       <c r="I13">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="J13">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>2.257220666666667</v>
+        <v>0.5333846666666667</v>
       </c>
       <c r="N13">
-        <v>6.771662</v>
+        <v>1.600154</v>
       </c>
       <c r="O13">
-        <v>0.04921715059102959</v>
+        <v>0.01293124490876184</v>
       </c>
       <c r="P13">
-        <v>0.04921715059102958</v>
+        <v>0.01293124490876184</v>
       </c>
       <c r="Q13">
-        <v>0.1397249688942222</v>
+        <v>0.3587673280320001</v>
       </c>
       <c r="R13">
-        <v>1.257524720048</v>
+        <v>3.228905952288</v>
       </c>
       <c r="S13">
-        <v>0.0007544247987533886</v>
+        <v>0.000938204741790809</v>
       </c>
       <c r="T13">
-        <v>0.0007544247987533885</v>
+        <v>0.0009382047417908089</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.267349666666667</v>
+        <v>7.463050333333332</v>
       </c>
       <c r="H14">
-        <v>3.802049</v>
+        <v>22.389151</v>
       </c>
       <c r="I14">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934347</v>
       </c>
       <c r="J14">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934348</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.262849333333333</v>
+        <v>2.781751333333333</v>
       </c>
       <c r="N14">
-        <v>3.788548</v>
+        <v>8.345253999999999</v>
       </c>
       <c r="O14">
-        <v>0.02753556474575133</v>
+        <v>0.06744008595411712</v>
       </c>
       <c r="P14">
-        <v>0.02753556474575133</v>
+        <v>0.06744008595411713</v>
       </c>
       <c r="Q14">
-        <v>1.600471681650222</v>
+        <v>20.76035021548377</v>
       </c>
       <c r="R14">
-        <v>14.404245134852</v>
+        <v>186.843151939354</v>
       </c>
       <c r="S14">
-        <v>0.008641515799896485</v>
+        <v>0.05428994641247665</v>
       </c>
       <c r="T14">
-        <v>0.008641515799896485</v>
+        <v>0.05428994641247667</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.267349666666667</v>
+        <v>7.463050333333332</v>
       </c>
       <c r="H15">
-        <v>3.802049</v>
+        <v>22.389151</v>
       </c>
       <c r="I15">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934347</v>
       </c>
       <c r="J15">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934348</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>76.354484</v>
       </c>
       <c r="O15">
-        <v>0.5549524086300172</v>
+        <v>0.6170396927334101</v>
       </c>
       <c r="P15">
-        <v>0.554952408630017</v>
+        <v>0.6170396927334101</v>
       </c>
       <c r="Q15">
-        <v>32.25594328196845</v>
+        <v>189.9457857558982</v>
       </c>
       <c r="R15">
-        <v>290.303489537716</v>
+        <v>1709.512071803084</v>
       </c>
       <c r="S15">
-        <v>0.1741613092612113</v>
+        <v>0.4967231488355306</v>
       </c>
       <c r="T15">
-        <v>0.1741613092612112</v>
+        <v>0.4967231488355306</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.267349666666667</v>
+        <v>7.463050333333332</v>
       </c>
       <c r="H16">
-        <v>3.802049</v>
+        <v>22.389151</v>
       </c>
       <c r="I16">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934347</v>
       </c>
       <c r="J16">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934348</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.981677666666667</v>
+        <v>3.163721333333334</v>
       </c>
       <c r="N16">
-        <v>8.945033</v>
+        <v>9.491164000000001</v>
       </c>
       <c r="O16">
-        <v>0.06501343927129398</v>
+        <v>0.07670047142539008</v>
       </c>
       <c r="P16">
-        <v>0.06501343927129398</v>
+        <v>0.07670047142539008</v>
       </c>
       <c r="Q16">
-        <v>3.778828196957445</v>
+        <v>23.61101155130711</v>
       </c>
       <c r="R16">
-        <v>34.009453772617</v>
+        <v>212.499103961764</v>
       </c>
       <c r="S16">
-        <v>0.0204032373352787</v>
+        <v>0.06174464970772941</v>
       </c>
       <c r="T16">
-        <v>0.0204032373352787</v>
+        <v>0.06174464970772942</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.267349666666667</v>
+        <v>7.463050333333332</v>
       </c>
       <c r="H17">
-        <v>3.802049</v>
+        <v>22.389151</v>
       </c>
       <c r="I17">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934347</v>
       </c>
       <c r="J17">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934348</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.47984033333333</v>
+        <v>4.241536</v>
       </c>
       <c r="N17">
-        <v>34.439521</v>
+        <v>12.724608</v>
       </c>
       <c r="O17">
-        <v>0.250310055543222</v>
+        <v>0.1028307415511195</v>
       </c>
       <c r="P17">
-        <v>0.250310055543222</v>
+        <v>0.1028307415511195</v>
       </c>
       <c r="Q17">
-        <v>14.54897181983656</v>
+        <v>31.65479665864533</v>
       </c>
       <c r="R17">
-        <v>130.940746378529</v>
+        <v>284.893169927808</v>
       </c>
       <c r="S17">
-        <v>0.0785550730418004</v>
+        <v>0.08277977955371663</v>
       </c>
       <c r="T17">
-        <v>0.0785550730418004</v>
+        <v>0.08277977955371664</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.267349666666667</v>
+        <v>7.463050333333332</v>
       </c>
       <c r="H18">
-        <v>3.802049</v>
+        <v>22.389151</v>
       </c>
       <c r="I18">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934347</v>
       </c>
       <c r="J18">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934348</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.429399</v>
+        <v>5.075855</v>
       </c>
       <c r="N18">
-        <v>7.288196999999999</v>
+        <v>15.227565</v>
       </c>
       <c r="O18">
-        <v>0.05297138121868605</v>
+        <v>0.1230577634272013</v>
       </c>
       <c r="P18">
-        <v>0.05297138121868605</v>
+        <v>0.1230577634272013</v>
       </c>
       <c r="Q18">
-        <v>3.078898012850333</v>
+        <v>37.88136134970166</v>
       </c>
       <c r="R18">
-        <v>27.710082115653</v>
+        <v>340.932252147315</v>
       </c>
       <c r="S18">
-        <v>0.01662406534858689</v>
+        <v>0.09906273527953795</v>
       </c>
       <c r="T18">
-        <v>0.01662406534858689</v>
+        <v>0.09906273527953798</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.267349666666667</v>
+        <v>7.463050333333332</v>
       </c>
       <c r="H19">
-        <v>3.802049</v>
+        <v>22.389151</v>
       </c>
       <c r="I19">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934347</v>
       </c>
       <c r="J19">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934348</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>2.257220666666667</v>
+        <v>0.5333846666666667</v>
       </c>
       <c r="N19">
-        <v>6.771662</v>
+        <v>1.600154</v>
       </c>
       <c r="O19">
-        <v>0.04921715059102959</v>
+        <v>0.01293124490876184</v>
       </c>
       <c r="P19">
-        <v>0.04921715059102958</v>
+        <v>0.01293124490876184</v>
       </c>
       <c r="Q19">
-        <v>2.860687859493111</v>
+        <v>3.980676614361556</v>
       </c>
       <c r="R19">
-        <v>25.746190735438</v>
+        <v>35.826089529254</v>
       </c>
       <c r="S19">
-        <v>0.01544587112649982</v>
+        <v>0.01040978200444351</v>
       </c>
       <c r="T19">
-        <v>0.01544587112649982</v>
+        <v>0.01040978200444351</v>
       </c>
     </row>
   </sheetData>
